--- a/artfynd/A 59359-2025 artfynd.xlsx
+++ b/artfynd/A 59359-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130644032</v>
       </c>
       <c r="B2" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>130644031</v>
       </c>
       <c r="B3" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>130644021</v>
       </c>
       <c r="B4" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>130644023</v>
       </c>
       <c r="B5" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>130644022</v>
       </c>
       <c r="B6" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         <v>130644017</v>
       </c>
       <c r="B7" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>130644014</v>
       </c>
       <c r="B8" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>130644020</v>
       </c>
       <c r="B9" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>130644028</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>130644019</v>
       </c>
       <c r="B11" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>130644027</v>
       </c>
       <c r="B12" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>130644018</v>
       </c>
       <c r="B13" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>130644030</v>
       </c>
       <c r="B14" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>130644029</v>
       </c>
       <c r="B15" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>130644013</v>
       </c>
       <c r="B16" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
